--- a/Tennis/Tennis Legends.xlsx
+++ b/Tennis/Tennis Legends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/WTA Tour/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="609" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB31C20B-0EB0-4F11-A648-9EB12D50E6F6}"/>
+  <xr:revisionPtr revIDLastSave="611" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D4FAE0-9713-4C25-B55E-011C33B1ECCB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
+    <workbookView minimized="1" xWindow="18720" yWindow="0" windowWidth="14385" windowHeight="15285" firstSheet="4" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
   </bookViews>
   <sheets>
     <sheet name="Serena Williams (USA)" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="70">
   <si>
     <t>Carpet</t>
   </si>
@@ -253,13 +253,7 @@
     <t>Jannik Sinner (ITALY)</t>
   </si>
   <si>
-    <t>Shuai Zhang (CHINA)</t>
-  </si>
-  <si>
     <t>Tel-Aviv Indoors</t>
-  </si>
-  <si>
-    <t>Leylah Fernandez (CANADA)</t>
   </si>
 </sst>
 </file>
@@ -329,9 +323,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -369,7 +363,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -475,7 +469,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -617,7 +611,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2168,7 +2162,7 @@
         <v>2022</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -2630,15 +2624,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
@@ -2716,50 +2710,14 @@
         <v>0.54713804713804715</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>166</v>
-      </c>
-      <c r="D5">
-        <v>104</v>
-      </c>
-      <c r="E5" s="2">
-        <f>(C5-D5)/C5</f>
-        <v>0.37349397590361444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6">
-        <v>551</v>
-      </c>
-      <c r="D6">
-        <v>398</v>
-      </c>
-      <c r="E6" s="2">
-        <f>(C6-D6)/C6</f>
-        <v>0.27767695099818512</v>
-      </c>
-    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
       <sortCondition descending="1" ref="E1"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="E2:E6">
-    <cfRule type="iconSet" priority="6">
+  <conditionalFormatting sqref="E2:E4">
+    <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>

--- a/Tennis/Tennis Legends.xlsx
+++ b/Tennis/Tennis Legends.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f3e3711e514002e0/Documents/Personal/Website/Soumya's Website/Tennis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="611" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69D4FAE0-9713-4C25-B55E-011C33B1ECCB}"/>
+  <xr:revisionPtr revIDLastSave="613" documentId="8_{3B9AA305-3A5A-4EBE-AF48-B5388D2D991C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E052AB5F-C589-4878-B1F8-04DBCCDF47E6}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="18720" yWindow="0" windowWidth="14385" windowHeight="15285" firstSheet="4" activeTab="5" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="33240" windowHeight="21120" activeTab="4" xr2:uid="{E19BFB44-4CB3-4EEA-95EC-3C17FEF2508F}"/>
   </bookViews>
   <sheets>
     <sheet name="Serena Williams (USA)" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,7 @@
     <sheet name="Rafael Nadal (SPAIN)" sheetId="3" r:id="rId3"/>
     <sheet name="Novak Djokovic (SERBIA)" sheetId="4" r:id="rId4"/>
     <sheet name="Roger Federer (SWITZERLAND)" sheetId="5" r:id="rId5"/>
-    <sheet name="Word Document Organization" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Word Document Organization'!$A$1:$E$1</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -44,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="62">
   <si>
     <t>Carpet</t>
   </si>
@@ -227,30 +223,6 @@
   </si>
   <si>
     <t>Swiss Indoors</t>
-  </si>
-  <si>
-    <t>PLAYER NAME</t>
-  </si>
-  <si>
-    <t>NUMBER OF TITLES WON</t>
-  </si>
-  <si>
-    <t>WINS</t>
-  </si>
-  <si>
-    <t>LOSSES</t>
-  </si>
-  <si>
-    <t>WINNING PERCENTILE RANGE</t>
-  </si>
-  <si>
-    <t>Aga Radwańska (POLAND)</t>
-  </si>
-  <si>
-    <t>Sacsha Zverev (GERMANY)</t>
-  </si>
-  <si>
-    <t>Jannik Sinner (ITALY)</t>
   </si>
   <si>
     <t>Tel-Aviv Indoors</t>
@@ -297,10 +269,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -323,9 +294,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -363,7 +334,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -469,7 +440,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -611,7 +582,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -625,7 +596,7 @@
   <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+      <selection activeCell="C13" sqref="C13:C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1070,7 +1041,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:C20"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,8 +1287,8 @@
   </sheetPr>
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C32" sqref="C32:C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,8 +1754,8 @@
   </sheetPr>
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="A2:C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1851,21 +1822,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2017</v>
+        <v>2022</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2018</v>
+        <v>2017</v>
       </c>
       <c r="B7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -1873,13 +1844,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2007</v>
+        <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -1887,7 +1858,7 @@
         <v>2007</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
         <v>1</v>
@@ -1895,10 +1866,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1909,7 +1880,7 @@
         <v>2008</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
         <v>1</v>
@@ -1920,7 +1891,7 @@
         <v>2008</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>1</v>
@@ -1931,7 +1902,7 @@
         <v>2008</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>1</v>
@@ -1939,10 +1910,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="B14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1950,10 +1921,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="C15" t="s">
         <v>1</v>
@@ -1961,10 +1932,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
         <v>1</v>
@@ -1975,7 +1946,7 @@
         <v>2011</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>1</v>
@@ -1983,10 +1954,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1997,7 +1968,7 @@
         <v>2012</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>1</v>
@@ -2008,7 +1979,7 @@
         <v>2012</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
         <v>1</v>
@@ -2016,10 +1987,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
         <v>1</v>
@@ -2027,10 +1998,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
         <v>1</v>
@@ -2041,7 +2012,7 @@
         <v>2014</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>1</v>
@@ -2049,10 +2020,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
         <v>1</v>
@@ -2063,7 +2034,7 @@
         <v>2015</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>1</v>
@@ -2071,10 +2042,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>2016</v>
+        <v>2015</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
         <v>1</v>
@@ -2085,7 +2056,7 @@
         <v>2016</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>1</v>
@@ -2096,7 +2067,7 @@
         <v>2016</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="C28" t="s">
         <v>1</v>
@@ -2104,10 +2075,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>1</v>
@@ -2118,7 +2089,7 @@
         <v>2018</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C30" t="s">
         <v>1</v>
@@ -2126,10 +2097,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>1</v>
@@ -2140,7 +2111,7 @@
         <v>2019</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
         <v>1</v>
@@ -2148,13 +2119,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2022</v>
+        <v>2019</v>
       </c>
       <c r="B33" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -2162,7 +2133,7 @@
         <v>2022</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="C34" t="s">
         <v>1</v>
@@ -2180,8 +2151,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C32">
-    <sortCondition ref="C2:C32"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C35">
+    <sortCondition ref="C2:C35"/>
   </sortState>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
@@ -2195,8 +2166,8 @@
   </sheetPr>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2620,112 +2591,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="84" orientation="landscape" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B2">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>167</v>
-      </c>
-      <c r="D2">
-        <v>71</v>
-      </c>
-      <c r="E2" s="2">
-        <f>(C2-D2)/C2</f>
-        <v>0.57485029940119758</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>377</v>
-      </c>
-      <c r="D3">
-        <v>170</v>
-      </c>
-      <c r="E3" s="2">
-        <f>(C3-D3)/C3</f>
-        <v>0.54907161803713533</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>594</v>
-      </c>
-      <c r="D4">
-        <v>269</v>
-      </c>
-      <c r="E4" s="2">
-        <f>(C4-D4)/C4</f>
-        <v>0.54713804713804715</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{295C0B18-F3E4-4C48-9ECC-1752C2EFA762}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E6">
-      <sortCondition descending="1" ref="E1"/>
-    </sortState>
-  </autoFilter>
-  <conditionalFormatting sqref="E2:E4">
-    <cfRule type="iconSet" priority="7">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>